--- a/storage/durgesh/morph_clustered2.xlsx
+++ b/storage/durgesh/morph_clustered2.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
